--- a/_site/Data/WICmodule.xlsx
+++ b/_site/Data/WICmodule.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25103"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{537E309F-5794-E24E-AB36-63D0347AF0C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D72C14EC-E04C-B741-AA36-23425F8CB9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14760" windowHeight="16080" xr2:uid="{C62E25E4-F8DA-E347-9156-31541D9A101F}"/>
+    <workbookView xWindow="10480" yWindow="500" windowWidth="14760" windowHeight="16080" xr2:uid="{C62E25E4-F8DA-E347-9156-31541D9A101F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>Question</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Source Link</t>
   </si>
   <si>
-    <t>Occurrence</t>
+    <t>Dates Used</t>
   </si>
   <si>
     <t>Are you or any member of your household currently participating in the WIC program, that is, the Special Supplemental Nutrition Program for Women, Infants, and Children?</t>
@@ -56,6 +56,9 @@
   <si>
     <t xml:space="preserve">•Yes 
 •No </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/21/2021-11/24/2021 12/08/2021-12/14/2021 </t>
   </si>
   <si>
     <t>What year did you first enroll in WIC? If you have enrolled for multiple pregnancies/children, please enter your earlier year of enrollment.</t>
@@ -159,18 +162,12 @@
   <si>
     <t>f the fruit and vegetable benefit level would be reduced to $9-$11 per participant per month, would you still be interested in applying? Why?</t>
   </si>
-  <si>
-    <t xml:space="preserve">85 87, </t>
-  </si>
-  <si>
-    <t>85, 87</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -205,13 +202,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -529,20 +529,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09795069-5782-EA41-862C-381EF3714CD4}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="19" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="18.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="23.125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.875" style="1"/>
+    <col min="5" max="5" width="26.5" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,136 +559,136 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="316" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="315.95" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="138" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="204.75">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="236.25">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="173.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="189">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="189">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="408" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="78.75">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="94.5">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="409.6">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="99.75">
+      <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="138" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="221" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="255" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="187" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="204" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="204" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="408" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="121" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>28</v>
+      <c r="E13" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/_site/Data/WICmodule.xlsx
+++ b/_site/Data/WICmodule.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miLWvMfGpMsyGt46PuZPmBPWjDpJQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgP7+aThdJzC/859LYYEW5sroS7tw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="66">
   <si>
     <t>Question</t>
   </si>
@@ -125,7 +125,7 @@
     <t>Is there anything else you would like to share about your experience with WIC?</t>
   </si>
   <si>
-    <t>[Free Response]</t>
+    <t>Open ended response</t>
   </si>
   <si>
     <t>Which of the following are reasons why your child is not currently participating in WIC? Please check all that apply.</t>
@@ -205,9 +205,6 @@
   </si>
   <si>
     <t>What year did you first enroll in WIC? If you have enrolled for multiple pregnancies/children, please enter your earlier year of enrollment.</t>
-  </si>
-  <si>
-    <t>Open Ended</t>
   </si>
   <si>
     <t>What month did you first enroll in WIC?</t>
@@ -1623,8 +1620,8 @@
       <c r="A31" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>48</v>
+      <c r="B31" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1655,10 +1652,10 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1689,10 +1686,10 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1723,10 +1720,10 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1757,10 +1754,10 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1791,10 +1788,10 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1825,10 +1822,10 @@
     </row>
     <row r="37" ht="408.0" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1859,10 +1856,10 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1893,10 +1890,10 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>48</v>
+      <c r="B39" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1927,10 +1924,10 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1961,10 +1958,10 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
